--- a/note/06_jsp/0222_13.pagingreply.xlsx
+++ b/note/06_jsp/0222_13.pagingreply.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="페이징" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>시작번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,11 +109,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">      큰 값이 있으면 그 글의 re_step을 re_step+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM board ORDER BY ref DESC, re_step ASC;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. num은 1씩 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          답변글이면 원글의 ref와 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ⓐ ref가 같고 원글보다 re_step가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ⓑ 답변글 re_step = 원글 re_step + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. ref - 원글이면 num과 같고,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. re_step은 원글이면 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re_indent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. re_indent - 원글이면 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                답변글이면 원글의 re_indent+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>((현재페이지 -1)/블록당페이지수)*블록당페이지수 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(현재페이지 - 1) * 페이지당 갯수+ 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작번호 + 페이지당갯수 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      큰 값이 있으면 그 글의 re_step을 re_step+1</t>
+    <t>0+1+1+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,127 +237,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0+1+1+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM board ORDER BY ref DESC, re_step ASC;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. num은 1씩 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">          답변글이면 원글의 ref와 같다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⓐ ref가 같고 원글보다 re_step가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⓑ 답변글 re_step = 원글 re_step + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. ref - 원글이면 num과 같고,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. re_step은 원글이면 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블록수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>re_indent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. re_indent - 원글이면 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                답변글이면 원글의 re_indent+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>((현재페이지 -1)/블록당페이지수)*블록당페이지수 +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(현재페이지 - 1) * 페이지당 갯수+ 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작번호 + 페이지당갯수 - 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -917,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -928,27 +932,27 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -959,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -984,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1020,11 +1024,11 @@
         <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1032,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -1045,7 +1049,7 @@
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1053,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3" s="11">
         <v>2</v>
@@ -1066,7 +1070,7 @@
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1074,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8">
         <v>3</v>
@@ -1087,7 +1091,7 @@
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1095,13 +1099,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E5" s="13">
         <v>1</v>
@@ -1116,20 +1120,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="11">
         <v>2</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E6" s="14">
         <v>1</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1137,20 +1141,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" s="8">
         <v>3</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1158,20 +1162,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E8" s="14">
         <v>1</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1179,20 +1183,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C9" s="11">
         <v>2</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E9" s="14">
         <v>1</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1200,20 +1204,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11">
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E10" s="14">
         <v>2</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1221,13 +1225,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
@@ -1237,7 +1241,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">

--- a/note/06_jsp/0222_13.pagingreply.xlsx
+++ b/note/06_jsp/0222_13.pagingreply.xlsx
@@ -812,7 +812,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/note/06_jsp/0222_13.pagingreply.xlsx
+++ b/note/06_jsp/0222_13.pagingreply.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="페이징" sheetId="1" r:id="rId1"/>
@@ -30,222 +30,222 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>시작페이지 + 블록당페이지 수 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록당 페이지수 : 10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOCKSIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGESIZE</t>
+  </si>
+  <si>
+    <t>한 페이지당 글 수 :10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 몇 페이지인지(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 몇 페이지인지(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re_step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                답변글이면 다음과 같이 진행한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      큰 값이 있으면 그 글의 re_step을 re_step+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글2-3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM board ORDER BY ref DESC, re_step ASC;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. num은 1씩 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          답변글이면 원글의 ref와 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ⓐ ref가 같고 원글보다 re_step가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ⓑ 답변글 re_step = 원글 re_step + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. ref - 원글이면 num과 같고,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. re_step은 원글이면 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>re_indent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. re_indent - 원글이면 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                답변글이면 원글의 re_indent+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>((현재페이지 -1)/블록당페이지수)*블록당페이지수 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1+1+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(현재페이지 - 1) * 페이지당 갯수+ 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작번호 + 페이지당갯수 - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>시작페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>끝페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작페이지 + 블록당페이지 수 -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블록당 페이지수 : 10개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startRow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endRow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLOCKSIZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGESIZE</t>
-  </si>
-  <si>
-    <t>한 페이지당 글 수 :10개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 몇 페이지인지(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 몇 페이지인지(String)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>re_step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                답변글이면 다음과 같이 진행한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      큰 값이 있으면 그 글의 re_step을 re_step+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글1-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글2-3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM board ORDER BY ref DESC, re_step ASC;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. num은 1씩 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pageCnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil(페이지전체갯수/블록당 페이지 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">          답변글이면 원글의 ref와 같다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⓐ ref가 같고 원글보다 re_step가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ⓑ 답변글 re_step = 원글 re_step + 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. ref - 원글이면 num과 같고,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. re_step은 원글이면 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>블록수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>re_indent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. re_indent - 원글이면 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                답변글이면 원글의 re_indent+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math.ceil((double)전체글갯수/페이지당 갯수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>((현재페이지 -1)/블록당페이지수)*블록당페이지수 +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(현재페이지 - 1) * 페이지당 갯수+ 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작번호 + 페이지당갯수 - 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -824,20 +824,20 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -850,19 +850,19 @@
     </row>
     <row r="4" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -915,7 +915,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
@@ -937,44 +937,44 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1012,23 +1012,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" s="22"/>
       <c r="G1" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1057,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" s="11">
         <v>2</v>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1078,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8">
         <v>3</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1099,20 +1099,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E5" s="13">
         <v>1</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1120,20 +1120,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="11">
         <v>2</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E6" s="14">
         <v>1</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1141,20 +1141,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8">
         <v>3</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1162,20 +1162,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E8" s="14">
         <v>1</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1183,20 +1183,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="11">
         <v>2</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E9" s="14">
         <v>1</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1204,20 +1204,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11">
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E10" s="14">
         <v>2</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1225,13 +1225,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="8">
         <v>3</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
